--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2232904.508903207</v>
+        <v>2231016.927386804</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>263.0212450834721</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>96.36136743208931</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>115.9118647420297</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>208.4621681245751</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>133.5065782393455</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>66.58496257157209</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>119.8298937360217</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>93.02703711889718</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>5.562624396424749</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.11561436815803</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>3.633341602777154</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>39.11561436815849</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>172.793599626125</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>6.920953078877941</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>216.2479102458288</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211455</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.90786120994184</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523571</v>
+        <v>54.76109577523585</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>115.3693035604159</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169287</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3275,16 +3275,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3512,16 +3512,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2056.787465592192</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>1687.82494865178</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>1687.82494865178</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1302.036696053536</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>891.0507912639284</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>473.0869831621153</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733119</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
         <v>1836.345445977174</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2443.387305656314</v>
+        <v>1565.148859551602</v>
       </c>
       <c r="Y2" t="n">
-        <v>2443.387305656314</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,7 +4413,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="D5" t="n">
-        <v>588.5097680147103</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>202.721515416466</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>121.2005197714474</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>121.2005197714474</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2521.080104845663</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.311449575549</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.845691314469</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.706359338657</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.835903981927</v>
+        <v>510.2366179610307</v>
       </c>
       <c r="C13" t="n">
-        <v>102.835903981927</v>
+        <v>341.3004350331238</v>
       </c>
       <c r="D13" t="n">
-        <v>102.835903981927</v>
+        <v>191.1837956207881</v>
       </c>
       <c r="E13" t="n">
-        <v>102.835903981927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>102.835903981927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5206,43 +5206,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169049</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>330.8254548799443</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X13" t="n">
-        <v>102.8359039819269</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.835903981927</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5276,16 +5276,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>261.8048459311032</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.7278130442836</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="C16" t="n">
-        <v>136.7278130442836</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="D16" t="n">
-        <v>136.7278130442836</v>
+        <v>97.21709146028573</v>
       </c>
       <c r="E16" t="n">
-        <v>136.7278130442836</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="F16" t="n">
-        <v>136.7278130442836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>136.7278130442836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V16" t="n">
-        <v>874.9271131227918</v>
+        <v>731.3177283550798</v>
       </c>
       <c r="W16" t="n">
-        <v>585.5099430858311</v>
+        <v>727.6476863320727</v>
       </c>
       <c r="X16" t="n">
-        <v>357.5203921878137</v>
+        <v>499.6581354340553</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.7278130442836</v>
+        <v>278.8655562905253</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>190.6805289025654</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>874.9271131227922</v>
       </c>
       <c r="V19" t="n">
-        <v>1035.248642250122</v>
+        <v>874.9271131227922</v>
       </c>
       <c r="W19" t="n">
-        <v>745.8314722131613</v>
+        <v>585.5099430858317</v>
       </c>
       <c r="X19" t="n">
-        <v>745.8314722131613</v>
+        <v>357.5203921878144</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>136.7278130442843</v>
       </c>
     </row>
     <row r="20">
@@ -5835,19 +5835,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>413.043221886103</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247868</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247868</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>709.4512536189</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>420.0340835819393</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819393</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>413.043221886103</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>791.4353891154688</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706324</v>
+        <v>536.750900909582</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619851</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,61 +6449,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>644.675512255521</v>
+        <v>315.6192635197074</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619851</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>547.331280806177</v>
+        <v>488.0294937553493</v>
       </c>
       <c r="C31" t="n">
-        <v>434.1559631596409</v>
+        <v>374.8541761088131</v>
       </c>
       <c r="D31" t="n">
-        <v>339.8001890286759</v>
+        <v>280.498401977848</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276535</v>
+        <v>188.3461736768255</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818938</v>
+        <v>902.6804289818912</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652472</v>
+        <v>730.4517433652445</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030879</v>
+        <v>613.9170933042184</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6686,25 +6686,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6838,13 +6838,13 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,13 +6871,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7242,37 +7242,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7391,55 +7391,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7479,37 +7479,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962217</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
@@ -7576,7 +7576,7 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7643,13 +7643,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018223</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962217</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O45" t="n">
         <v>2112.811595180915</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.49733361305248</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863229</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9483,22 +9483,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>234.411650950316</v>
+        <v>94.13752431970616</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>234.411650950316</v>
+        <v>28.12263706263042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>18.73797368291389</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>297.2466435761029</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>274.3657496970637</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>53.40692552767199</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>160.9309440669528</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H16" t="n">
-        <v>109.7982139993781</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>282.8896567338139</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>107.3183482784106</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>79.344043697703</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>211.6637002732168</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.299650812560344</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338497</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>158.8051956154455</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.7208623434384</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>48.01209316312199</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881796.5332577627</v>
+        <v>881796.5332577624</v>
       </c>
     </row>
     <row r="12">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459068</v>
       </c>
-      <c r="G2" t="n">
-        <v>527889.2306459066</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="K2" t="n">
-        <v>549209.885416114</v>
+        <v>549209.8854161142</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="N2" t="n">
         <v>554203.1946583906</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086699</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007551</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007494</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007507</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007531</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732801</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354832</v>
+        <v>-266540.8113354836</v>
       </c>
       <c r="C6" t="n">
-        <v>323427.0678790609</v>
+        <v>323427.067879061</v>
       </c>
       <c r="D6" t="n">
-        <v>323427.0678790607</v>
+        <v>323427.0678790606</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571337</v>
+        <v>-97272.32256168562</v>
       </c>
       <c r="F6" t="n">
-        <v>427985.1730411826</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="G6" t="n">
-        <v>427985.1730411826</v>
+        <v>427887.7139152105</v>
       </c>
       <c r="H6" t="n">
-        <v>427985.1730411828</v>
+        <v>427887.7139152105</v>
       </c>
       <c r="I6" t="n">
-        <v>427985.1730411828</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.9538485899</v>
+        <v>251464.4947226176</v>
       </c>
       <c r="K6" t="n">
-        <v>382337.7174128416</v>
+        <v>382319.2236749076</v>
       </c>
       <c r="L6" t="n">
-        <v>415809.6631401705</v>
+        <v>415809.6631401708</v>
       </c>
       <c r="M6" t="n">
-        <v>291351.5547072002</v>
+        <v>291351.5547072004</v>
       </c>
       <c r="N6" t="n">
         <v>426152.5699410372</v>
@@ -26561,7 +26561,7 @@
         <v>426152.5699410375</v>
       </c>
       <c r="P6" t="n">
-        <v>381989.9646381917</v>
+        <v>381989.9646381918</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.229288266773749e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.229288266773749e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.229288266773749e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.229288266773749e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26756,25 +26756,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541004</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.229288266773749e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108359</v>
+        <v>12.92863350108372</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -26978,28 +26978,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.229288266773749e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60.90152768088507</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>273.3697332463797</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>136.2257785817984</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>146.2208734961079</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>273.3694675023659</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.34635367328916</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>207.9223647341132</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>52.82756747470452</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.229288266773749e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.410856718809461e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.229288266773749e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>5.229288266773749e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30232,13 +30232,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35489,13 +35489,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>339.4611332181801</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35507,10 +35507,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>166.2502570412296</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35817,10 +35817,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187475</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>94.40751256795913</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,13 +35969,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367891</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
@@ -36054,10 +36054,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187475</v>
@@ -36203,22 +36203,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
@@ -36291,10 +36291,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382553</v>
+        <v>244.7129629076454</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382553</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>373.6013019241296</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382553</v>
+        <v>178.6980756505696</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>225.8313886144385</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>630.4412169741157</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>607.5603230950767</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315248</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
